--- a/data/resumes_scrubbed/legislative_activity/104_1.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/104_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4E2C2C70-5184-44C6-92AF-69A65FB50492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:40009_{4E2C2C70-5184-44C6-92AF-69A65FB50492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2EF058-000C-4730-B127-DDC5A92CBF5D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="104_1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>1,839 hrs., 10' 1,525 hrs., 25'</t>
-  </si>
-  <si>
-    <t>28 60</t>
-  </si>
-  <si>
     <t>Senate</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t xml:space="preserve">Measures reported, total  </t>
   </si>
   <si>
-    <t xml:space="preserve">Special reporcs </t>
-  </si>
-  <si>
     <t xml:space="preserve">Conference reports  </t>
   </si>
   <si>
@@ -152,12 +143,21 @@
   </si>
   <si>
     <t>Bills vetoed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special reports </t>
+  </si>
+  <si>
+    <t>1,525 hrs., 25'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,839 hrs., 10' </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -703,6 +703,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1021,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1034,10 +1038,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1045,7 +1049,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>104</v>
@@ -1059,7 +1063,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1073,7 +1077,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4">
         <v>34703</v>
@@ -1087,7 +1091,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>35067</v>
@@ -1101,7 +1105,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>211</v>
@@ -1112,15 +1116,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>19345</v>
@@ -1134,7 +1141,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>2455</v>
@@ -1145,10 +1152,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2">
+        <v>60</v>
       </c>
       <c r="D10">
         <v>88</v>
@@ -1156,12 +1166,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>346</v>
@@ -1172,7 +1182,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>77</v>
@@ -1183,7 +1193,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>80</v>
@@ -1194,7 +1204,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
         <v>7</v>
@@ -1202,7 +1212,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
         <v>11</v>
@@ -1213,7 +1223,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>14</v>
@@ -1224,7 +1234,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>18</v>
@@ -1235,7 +1245,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
         <v>139</v>
@@ -1246,7 +1256,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2">
         <v>249</v>
@@ -1257,7 +1267,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>166</v>
@@ -1268,7 +1278,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>35</v>
@@ -1279,7 +1289,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>8</v>
@@ -1287,7 +1297,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>7</v>
@@ -1298,7 +1308,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2">
         <v>7</v>
@@ -1306,7 +1316,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1317,7 +1327,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>25</v>
@@ -1328,7 +1338,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2">
         <v>16</v>
@@ -1339,7 +1349,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -1350,7 +1360,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2">
         <v>162</v>
@@ -1361,7 +1371,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3">
         <v>1801</v>
@@ -1372,7 +1382,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
         <v>1514</v>
@@ -1383,7 +1393,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
         <v>45</v>
@@ -1394,7 +1404,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
         <v>36</v>
@@ -1405,7 +1415,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
         <v>206</v>
@@ -1416,7 +1426,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
@@ -1427,7 +1437,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2">
         <v>613</v>
@@ -1438,7 +1448,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2">
         <v>568</v>
@@ -1446,7 +1456,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2">
         <v>9</v>
@@ -1454,7 +1464,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
